--- a/events_example.xlsx
+++ b/events_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Documents\GitHub\ArifSofi\RESM-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA2EEE-2929-49ED-BBB5-4316074131D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB99B35-A6B4-4DFD-93CA-BD46596ED27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87FA7816-15F4-4540-87C6-26C2BAC49430}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Event Title 1</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Event Description 3</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -950,15 +944,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846C01C8-E97C-4B85-A8CD-FC95816FD90A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>45993.416666666664</v>
+        <v>46015.416666666664</v>
       </c>
       <c r="D2" s="1">
-        <v>45993.625</v>
+        <v>46015.625</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1003,13 +998,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>45996.416666666664</v>
+        <v>46016.416666666664</v>
       </c>
       <c r="D3" s="1">
-        <v>45996.625</v>
+        <v>46016.625</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1020,13 +1015,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>45997.416666666664</v>
+        <v>46017.416666666664</v>
       </c>
       <c r="D4" s="1">
-        <v>45997.625</v>
+        <v>46017.625</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/events_example.xlsx
+++ b/events_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Documents\GitHub\ArifSofi\RESM-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB99B35-A6B4-4DFD-93CA-BD46596ED27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47317705-3B09-47D4-8E90-2DE75905D251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87FA7816-15F4-4540-87C6-26C2BAC49430}"/>
+    <workbookView xWindow="3765" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{87FA7816-15F4-4540-87C6-26C2BAC49430}"/>
   </bookViews>
   <sheets>
     <sheet name="events_example" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Event Title 1</t>
   </si>
@@ -34,18 +34,9 @@
     <t>description</t>
   </si>
   <si>
-    <t>start_at</t>
-  </si>
-  <si>
-    <t>end_at</t>
-  </si>
-  <si>
     <t>created_by</t>
   </si>
   <si>
-    <t>Arif Sofi</t>
-  </si>
-  <si>
     <t>Event Title 2</t>
   </si>
   <si>
@@ -56,6 +47,36 @@
   </si>
   <si>
     <t>Event Description 3</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>Dataran Perhimpunan</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>test, Arif Sofi</t>
+  </si>
+  <si>
+    <t>Farisya Hazlin, Arif Sofi</t>
+  </si>
+  <si>
+    <t>Event Title 4</t>
+  </si>
+  <si>
+    <t>Event Description 4</t>
   </si>
 </sst>
 </file>
@@ -942,21 +963,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846C01C8-E97C-4B85-A8CD-FC95816FD90A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -964,64 +985,111 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
+      <c r="G1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>46015.416666666664</v>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>46015.625</v>
-      </c>
-      <c r="E2" t="s">
+        <v>46025.416666666664</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46025.541666666664</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46026.416666666664</v>
+      </c>
+      <c r="E3" s="1">
+        <v>46026.541666666664</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>46027.416666608799</v>
+      </c>
+      <c r="E4" s="1">
+        <v>46027.541666608799</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>46016.416666666664</v>
-      </c>
-      <c r="D3" s="1">
-        <v>46016.625</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>46017.416666666664</v>
-      </c>
-      <c r="D4" s="1">
-        <v>46017.625</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46028.416666608799</v>
+      </c>
+      <c r="E5" s="1">
+        <v>46028.541666608799</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
